--- a/Data/EC/NIT-9008643440.xlsx
+++ b/Data/EC/NIT-9008643440.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23442F9F-8ECE-47FA-937C-63722E4615E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB29F39C-229E-4AC8-BA33-0030645F555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{823B61F6-C2F1-4FE6-A90A-C90E48869AFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7C04FEE-1673-4898-9189-833D7FFE6C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,40 +71,40 @@
     <t>KATHLEEN ELIANA TORRES LOPEZ</t>
   </si>
   <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1047436730</t>
+  </si>
+  <si>
+    <t>SILVIA PATRICIA CASTILLO SAENZ</t>
+  </si>
+  <si>
+    <t>1081806502</t>
+  </si>
+  <si>
+    <t>MARIA CAROLINA MENDOZA DIAZ</t>
+  </si>
+  <si>
+    <t>1047438995</t>
+  </si>
+  <si>
+    <t>VICTOR EDUARDO VASQUEZ ORTIZ</t>
+  </si>
+  <si>
+    <t>45514581</t>
+  </si>
+  <si>
+    <t>DONELLA LOPEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1047444144</t>
+  </si>
+  <si>
+    <t>RAFAEL ANDRES MOLINA GOMEZ</t>
+  </si>
+  <si>
     <t>1606</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1047436730</t>
-  </si>
-  <si>
-    <t>SILVIA PATRICIA CASTILLO SAENZ</t>
-  </si>
-  <si>
-    <t>1081806502</t>
-  </si>
-  <si>
-    <t>MARIA CAROLINA MENDOZA DIAZ</t>
-  </si>
-  <si>
-    <t>1047438995</t>
-  </si>
-  <si>
-    <t>VICTOR EDUARDO VASQUEZ ORTIZ</t>
-  </si>
-  <si>
-    <t>45514581</t>
-  </si>
-  <si>
-    <t>DONELLA LOPEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047444144</t>
-  </si>
-  <si>
-    <t>RAFAEL ANDRES MOLINA GOMEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -216,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9E3501-A972-DD72-728F-4C6210C7432B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0B483D-BF29-F6F2-A37E-E9924B5BCD63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFAB344-98E5-4CA0-A675-714C97D7E29A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E01DD-48E5-4C7E-847A-B45C5918F44B}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>27600</v>
       </c>
       <c r="G16" s="18">
-        <v>580000</v>
+        <v>689500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>27600</v>
       </c>
       <c r="G17" s="18">
-        <v>580000</v>
+        <v>689500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
@@ -1107,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>27600</v>
@@ -1130,10 +1130,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1153,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>27600</v>
@@ -1176,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>27600</v>
@@ -1199,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>27600</v>
@@ -1222,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>27600</v>
       </c>
       <c r="G24" s="18">
-        <v>0</v>
+        <v>689500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1245,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>27600</v>
       </c>
       <c r="G25" s="18">
-        <v>0</v>
+        <v>689500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1268,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>27600</v>
@@ -1291,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="F27" s="24">
         <v>27600</v>
